--- a/outcome/appendix/data/PHSMs/Gonorrhea.xlsx
+++ b/outcome/appendix/data/PHSMs/Gonorrhea.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,19 @@
     <t xml:space="preserve">value</t>
   </si>
   <si>
+    <t xml:space="preserve">diff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">color</t>
+  </si>
+  <si>
     <t xml:space="preserve">淋病</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decrease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increase</t>
   </si>
 </sst>
 </file>
@@ -403,6 +415,12 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -424,10 +442,16 @@
         <v>11446.2194333573</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H2" t="n">
         <v>8254</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1753.59428826605</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -450,10 +474,16 @@
         <v>10230.9868462173</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H3" t="n">
         <v>3524</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4594.6707374842</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -476,10 +506,16 @@
         <v>11159.285110339</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H4" t="n">
         <v>4661</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4872.42965510502</v>
+      </c>
+      <c r="J4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -502,10 +538,16 @@
         <v>11480.1532192776</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H5" t="n">
         <v>6267</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3363.64555611977</v>
+      </c>
+      <c r="J5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -528,10 +570,16 @@
         <v>12645.3983203711</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H6" t="n">
         <v>8104</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2261.72621114475</v>
+      </c>
+      <c r="J6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -554,10 +602,16 @@
         <v>12664.2368927106</v>
       </c>
       <c r="G7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H7" t="n">
         <v>9292</v>
+      </c>
+      <c r="I7" t="n">
+        <v>905.06674631776</v>
+      </c>
+      <c r="J7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -580,10 +634,16 @@
         <v>13840.4862599809</v>
       </c>
       <c r="G8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H8" t="n">
         <v>10724</v>
+      </c>
+      <c r="I8" t="n">
+        <v>272.593348158349</v>
+      </c>
+      <c r="J8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -606,10 +666,16 @@
         <v>14116.4947199412</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H9" t="n">
         <v>10621</v>
+      </c>
+      <c r="I9" t="n">
+        <v>560.621892625621</v>
+      </c>
+      <c r="J9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -632,10 +698,16 @@
         <v>13204.4933700068</v>
       </c>
       <c r="G10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H10" t="n">
         <v>11643</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-1048.84203878124</v>
+      </c>
+      <c r="J10" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +730,16 @@
         <v>12843.4145924244</v>
       </c>
       <c r="G11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
         <v>10551</v>
+      </c>
+      <c r="I11" t="n">
+        <v>18.3457562885487</v>
+      </c>
+      <c r="J11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12">
@@ -684,10 +762,16 @@
         <v>13337.4228243406</v>
       </c>
       <c r="G12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H12" t="n">
         <v>11260</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-567.381537644254</v>
+      </c>
+      <c r="J12" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13">
@@ -710,10 +794,16 @@
         <v>13216.1325239538</v>
       </c>
       <c r="G13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H13" t="n">
         <v>11691</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-1209.41866250924</v>
+      </c>
+      <c r="J13" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14">
@@ -736,10 +826,16 @@
         <v>13244.5561443896</v>
       </c>
       <c r="G14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H14" t="n">
         <v>10284</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-267.505059396559</v>
+      </c>
+      <c r="J14" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15">
@@ -762,10 +858,16 @@
         <v>11695.8077158816</v>
       </c>
       <c r="G15" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H15" t="n">
         <v>7650</v>
+      </c>
+      <c r="I15" t="n">
+        <v>294.496939709565</v>
+      </c>
+      <c r="J15" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="16">
@@ -788,10 +890,16 @@
         <v>12062.2859352899</v>
       </c>
       <c r="G16" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H16" t="n">
         <v>10878</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-1600.99755573996</v>
+      </c>
+      <c r="J16" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17">
@@ -814,10 +922,16 @@
         <v>12360.9781204469</v>
       </c>
       <c r="G17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H17" t="n">
         <v>10874</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-1507.51198457554</v>
+      </c>
+      <c r="J17" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="18">
@@ -840,10 +954,16 @@
         <v>13462.2676642113</v>
       </c>
       <c r="G18" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H18" t="n">
         <v>10773</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-684.520000607998</v>
+      </c>
+      <c r="J18" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="19">
@@ -866,10 +986,16 @@
         <v>13237.5762333958</v>
       </c>
       <c r="G19" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H19" t="n">
         <v>10950</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-1141.27782614112</v>
+      </c>
+      <c r="J19" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="20">
@@ -892,10 +1018,16 @@
         <v>14633.3226354009</v>
       </c>
       <c r="G20" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H20" t="n">
         <v>11747</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-1175.5550792952</v>
+      </c>
+      <c r="J20" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="21">
@@ -918,10 +1050,16 @@
         <v>14745.7291016758</v>
       </c>
       <c r="G21" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H21" t="n">
         <v>12019</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-1404.72973697189</v>
+      </c>
+      <c r="J21" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="22">
@@ -944,10 +1082,16 @@
         <v>13817.8598391007</v>
       </c>
       <c r="G22" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H22" t="n">
         <v>11744</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-1788.58258934968</v>
+      </c>
+      <c r="J22" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="23">
@@ -970,10 +1114,16 @@
         <v>13847.8652084383</v>
       </c>
       <c r="G23" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H23" t="n">
         <v>10720</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-717.117464919811</v>
+      </c>
+      <c r="J23" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="24">
@@ -996,10 +1146,16 @@
         <v>14230.2009195326</v>
       </c>
       <c r="G24" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H24" t="n">
         <v>11119</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-1058.70897190556</v>
+      </c>
+      <c r="J24" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="25">
@@ -1022,10 +1178,16 @@
         <v>14143.2825271521</v>
       </c>
       <c r="G25" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H25" t="n">
         <v>11264</v>
+      </c>
+      <c r="I25" t="n">
+        <v>-1387.25029469268</v>
+      </c>
+      <c r="J25" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="26">
@@ -1048,10 +1210,16 @@
         <v>13372.3725742048</v>
       </c>
       <c r="G26" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H26" t="n">
         <v>9273</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-3.73210569840012</v>
+      </c>
+      <c r="J26" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="27">
@@ -1074,10 +1242,16 @@
         <v>12176.7184730764</v>
       </c>
       <c r="G27" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H27" t="n">
         <v>6979</v>
+      </c>
+      <c r="I27" t="n">
+        <v>656.25304635626</v>
+      </c>
+      <c r="J27" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="28">
@@ -1100,10 +1274,16 @@
         <v>13442.0261877346</v>
       </c>
       <c r="G28" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H28" t="n">
         <v>8886</v>
+      </c>
+      <c r="I28" t="n">
+        <v>110.445678360784</v>
+      </c>
+      <c r="J28" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="29">
@@ -1126,10 +1306,16 @@
         <v>13927.1017551548</v>
       </c>
       <c r="G29" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H29" t="n">
         <v>7821</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1274.09429842321</v>
+      </c>
+      <c r="J29" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="30">
@@ -1152,10 +1338,16 @@
         <v>14564.8910546884</v>
       </c>
       <c r="G30" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H30" t="n">
         <v>8395</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1285.60301429571</v>
+      </c>
+      <c r="J30" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="31">
@@ -1178,10 +1370,16 @@
         <v>14274.0823722013</v>
       </c>
       <c r="G31" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H31" t="n">
         <v>8988</v>
+      </c>
+      <c r="I31" t="n">
+        <v>525.009056751365</v>
+      </c>
+      <c r="J31" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="32">
@@ -1204,10 +1402,16 @@
         <v>15937.9914080181</v>
       </c>
       <c r="G32" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H32" t="n">
         <v>9263</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1006.01694320343</v>
+      </c>
+      <c r="J32" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="33">
@@ -1230,10 +1434,16 @@
         <v>16104.5319610283</v>
       </c>
       <c r="G33" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H33" t="n">
         <v>9275</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1069.80559369015</v>
+      </c>
+      <c r="J33" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="34">
@@ -1256,10 +1466,16 @@
         <v>15483.8555261242</v>
       </c>
       <c r="G34" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H34" t="n">
         <v>8598</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1151.38112938287</v>
+      </c>
+      <c r="J34" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="35">
@@ -1282,10 +1498,16 @@
         <v>15357.5604196652</v>
       </c>
       <c r="G35" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H35" t="n">
         <v>7959</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1806.59579449861</v>
+      </c>
+      <c r="J35" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="36">
@@ -1308,10 +1530,16 @@
         <v>15714.0395384123</v>
       </c>
       <c r="G36" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H36" t="n">
         <v>7630</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2188.77845394584</v>
+      </c>
+      <c r="J36" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
